--- a/trunk/TP 1/Archivos/GraficoTempVsProm.xlsx
+++ b/trunk/TP 1/Archivos/GraficoTempVsProm.xlsx
@@ -362,9 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -379,17 +376,20 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,8 +443,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.36412056025599387"/>
-                  <c:y val="1.2962129344275545E-2"/>
+                  <c:x val="0.27178579713162077"/>
+                  <c:y val="5.5978441195163868E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -703,47 +703,98 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="76139520"/>
-        <c:axId val="76145408"/>
+        <c:axId val="67420928"/>
+        <c:axId val="67422464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76139520"/>
+        <c:axId val="67420928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Valor representativo en escala de gris (0-255)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76145408"/>
+        <c:crossAx val="67422464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76145408"/>
+        <c:axId val="67422464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="800"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Valor de temperatura (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES">
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>°C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76139520"/>
+        <c:crossAx val="67420928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68227369065013344"/>
+          <c:y val="0.34428066949283559"/>
+          <c:w val="0.27387735027990956"/>
+          <c:h val="0.31143866101432882"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -760,9 +811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -834,19 +885,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="promediosMatrices" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="erroresMatrices_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="erroresMatrices_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="erroresMatrices_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="erroresMatrices_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="erroresMatrices" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="erroresMatrices" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="promediosMatrices" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1137,7 +1188,7 @@
   <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1147,36 +1198,36 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>917</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>977</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1038</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>1100</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>1162</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>1225</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>1289</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>1353</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -1200,12 +1251,12 @@
       <c r="I3" s="1">
         <v>127.6</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>152.78</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
@@ -1229,23 +1280,23 @@
       <c r="I4" s="2">
         <v>16.963999999999999</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>23.742000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2">
@@ -1276,44 +1327,44 @@
         <f t="shared" si="0"/>
         <v>110.636</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <f t="shared" si="0"/>
         <v>129.03800000000001</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <f>C3+C4</f>
         <v>30.8902</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <f t="shared" ref="D7:J7" si="1">D3+D4</f>
         <v>35.970700000000001</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <f t="shared" si="1"/>
         <v>47.746600000000001</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
         <v>66.944999999999993</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
         <v>94.376000000000005</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>117.02200000000001</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="10">
         <f t="shared" si="1"/>
         <v>144.56399999999999</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <f t="shared" si="1"/>
         <v>176.52199999999999</v>
       </c>
